--- a/Pin-Conversion.xlsx
+++ b/Pin-Conversion.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\GitHub\BTT-GTR-V1-PnP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A17C7-5A9B-4A4F-9D9A-8DC62B578BB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB3D6D-24C6-4412-8086-D83F8FE45769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="19875" xr2:uid="{9E4D2606-AF85-4D14-8717-62C639C41A9B}"/>
+    <workbookView xWindow="18300" yWindow="7455" windowWidth="21435" windowHeight="19875" activeTab="1" xr2:uid="{9E4D2606-AF85-4D14-8717-62C639C41A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="302">
   <si>
     <t>PnP Pins</t>
   </si>
@@ -587,13 +587,358 @@
   </si>
   <si>
     <t>PF11/DCMI_12</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>SKR M5 V1.0 Pinout</t>
+  </si>
+  <si>
+    <t>Thermistor Headers</t>
+  </si>
+  <si>
+    <t>Temp 5</t>
+  </si>
+  <si>
+    <t>Temp 4</t>
+  </si>
+  <si>
+    <t>Temp 3</t>
+  </si>
+  <si>
+    <t>Temp 2</t>
+  </si>
+  <si>
+    <t>Temp 1</t>
+  </si>
+  <si>
+    <t>Motor Driver 1</t>
+  </si>
+  <si>
+    <t>Motor Driver 5</t>
+  </si>
+  <si>
+    <t>Motor Driver 3</t>
+  </si>
+  <si>
+    <t>Motor Driver 2</t>
+  </si>
+  <si>
+    <t>Motor Driver 4</t>
+  </si>
+  <si>
+    <t>Motor SPI 1</t>
+  </si>
+  <si>
+    <t>Motor Stop 1</t>
+  </si>
+  <si>
+    <t>K-Temp</t>
+  </si>
+  <si>
+    <t>Heat 1</t>
+  </si>
+  <si>
+    <t>Heat 2</t>
+  </si>
+  <si>
+    <t>Heat 3</t>
+  </si>
+  <si>
+    <t>Heat 4</t>
+  </si>
+  <si>
+    <t>Heat 5</t>
+  </si>
+  <si>
+    <t>Fan 5</t>
+  </si>
+  <si>
+    <t>Fan 4</t>
+  </si>
+  <si>
+    <t>Fan 3</t>
+  </si>
+  <si>
+    <t>Fan 2</t>
+  </si>
+  <si>
+    <t>Fan 1</t>
+  </si>
+  <si>
+    <t>NeoPixel</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>MS0</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>VMOTO</t>
+  </si>
+  <si>
+    <t>Motor UART 1</t>
+  </si>
+  <si>
+    <t>UART TX</t>
+  </si>
+  <si>
+    <t>UART RX</t>
+  </si>
+  <si>
+    <t>PI4</t>
+  </si>
+  <si>
+    <t>Motor Stop 2</t>
+  </si>
+  <si>
+    <t>Motor Stop 3</t>
+  </si>
+  <si>
+    <t>Motor Stop 4</t>
+  </si>
+  <si>
+    <t>Motor Stop 5</t>
+  </si>
+  <si>
+    <t>MOTO MOSI</t>
+  </si>
+  <si>
+    <t>MOTO SCK</t>
+  </si>
+  <si>
+    <t>MOTO MISO</t>
+  </si>
+  <si>
+    <t>PG15</t>
+  </si>
+  <si>
+    <t>M1-CS</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>Motor SPI 2</t>
+  </si>
+  <si>
+    <t>Motor SPI 3</t>
+  </si>
+  <si>
+    <t>Motor SPI 4</t>
+  </si>
+  <si>
+    <t>Motor SPI 5</t>
+  </si>
+  <si>
+    <t>M2-CS</t>
+  </si>
+  <si>
+    <t>M3-CS</t>
+  </si>
+  <si>
+    <t>M4-CS</t>
+  </si>
+  <si>
+    <t>M5-CS</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>KMOSI</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>TEMP-1</t>
+  </si>
+  <si>
+    <t>TEMP-4</t>
+  </si>
+  <si>
+    <t>TEMP-5</t>
+  </si>
+  <si>
+    <t>TEMP-2</t>
+  </si>
+  <si>
+    <t>TEMP-3</t>
+  </si>
+  <si>
+    <t>NEOPIXEL</t>
+  </si>
+  <si>
+    <t>M1-EN</t>
+  </si>
+  <si>
+    <t>M1-STEP</t>
+  </si>
+  <si>
+    <t>M1-DIR</t>
+  </si>
+  <si>
+    <t>M2-EN</t>
+  </si>
+  <si>
+    <t>M2-STEP</t>
+  </si>
+  <si>
+    <t>M2-DIR</t>
+  </si>
+  <si>
+    <t>M3-EN</t>
+  </si>
+  <si>
+    <t>M3-STEP</t>
+  </si>
+  <si>
+    <t>M3-DIR</t>
+  </si>
+  <si>
+    <t>M4-EN</t>
+  </si>
+  <si>
+    <t>M4-DIR</t>
+  </si>
+  <si>
+    <t>M4-STEP</t>
+  </si>
+  <si>
+    <t>M5-EN</t>
+  </si>
+  <si>
+    <t>M5-STEP</t>
+  </si>
+  <si>
+    <t>M5-DIR</t>
+  </si>
+  <si>
+    <t>Motor UART 2</t>
+  </si>
+  <si>
+    <t>Motor UART 3</t>
+  </si>
+  <si>
+    <t>Motor UART 4</t>
+  </si>
+  <si>
+    <t>Motor UART 5</t>
+  </si>
+  <si>
+    <t>M1-UART/CS</t>
+  </si>
+  <si>
+    <t>M2-UART/CS</t>
+  </si>
+  <si>
+    <t>M3-UART/CS</t>
+  </si>
+  <si>
+    <t>M4-UART/CS</t>
+  </si>
+  <si>
+    <t>M5-UART/CS</t>
+  </si>
+  <si>
+    <t>M1-STOP</t>
+  </si>
+  <si>
+    <t>M2-STOP</t>
+  </si>
+  <si>
+    <t>M3-STOP</t>
+  </si>
+  <si>
+    <t>M4-STOP</t>
+  </si>
+  <si>
+    <t>M5-STOP</t>
+  </si>
+  <si>
+    <t>FAN-5</t>
+  </si>
+  <si>
+    <t>FAN-4</t>
+  </si>
+  <si>
+    <t>FAN-3</t>
+  </si>
+  <si>
+    <t>FAN-2</t>
+  </si>
+  <si>
+    <t>FAN-1</t>
+  </si>
+  <si>
+    <t>HEAT-1</t>
+  </si>
+  <si>
+    <t>HEAT-2</t>
+  </si>
+  <si>
+    <t>HEAT-3</t>
+  </si>
+  <si>
+    <t>HEAT-4</t>
+  </si>
+  <si>
+    <t>HEAT-5</t>
+  </si>
+  <si>
+    <t>K-TEMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +977,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,8 +1021,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF26CE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7979"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF47E1E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5276B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -703,12 +1126,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,15 +1204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,6 +1213,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
@@ -760,6 +1327,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE5276B"/>
+      <color rgb="FFF26CE8"/>
+      <color rgb="FF47E1E5"/>
+      <color rgb="FFFF7979"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1070,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9364002A-3071-4909-8F3D-462F50CB00EE}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,19 +1676,19 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="2"/>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1147,10 +1722,10 @@
       <c r="L5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="5" t="s">
         <v>110</v>
       </c>
@@ -1988,14 +2563,14 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K33" s="6"/>
@@ -2049,17 +2624,17 @@
       </c>
     </row>
     <row r="39" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K40" s="15" t="s">
+      <c r="K40" s="12" t="s">
         <v>183</v>
       </c>
       <c r="L40" s="9" t="s">
@@ -2068,7 +2643,7 @@
       <c r="M40" s="8">
         <v>1</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="10">
         <v>2</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -2079,10 +2654,10 @@
       <c r="L41" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="10">
         <v>3</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="10">
         <v>4</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -2096,10 +2671,10 @@
       <c r="L42" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="10">
         <v>5</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="10">
         <v>6</v>
       </c>
       <c r="O42" s="1" t="s">
@@ -2113,7 +2688,7 @@
       <c r="L43" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="10">
         <v>7</v>
       </c>
       <c r="N43" s="8">
@@ -2127,23 +2702,23 @@
       </c>
     </row>
     <row r="45" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
     </row>
     <row r="46" spans="11:16" x14ac:dyDescent="0.25">
       <c r="L46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="11">
         <v>1</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="11">
         <v>2</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -2154,10 +2729,10 @@
       <c r="L47" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="11">
         <v>3</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="11">
         <v>4</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -2168,10 +2743,10 @@
       <c r="L48" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="11">
         <v>5</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="11">
         <v>6</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -2182,10 +2757,10 @@
       <c r="L49" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="11">
         <v>7</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="11">
         <v>8</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -2196,10 +2771,10 @@
       <c r="L50" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="11">
         <v>9</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="11">
         <v>10</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -2210,10 +2785,10 @@
       <c r="L51" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="11">
         <v>11</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="11">
         <v>12</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -2232,4 +2807,2857 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852F6564-8081-4816-8A3D-064F6650C92A}">
+  <dimension ref="A1:AV45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="H3" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="O3" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="30"/>
+      <c r="V3" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AC3" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AJ3" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AQ3" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV4" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="7">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="H5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16">
+        <v>16</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+      <c r="R5" s="17">
+        <v>16</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ5" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="17">
+        <v>16</v>
+      </c>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV5" s="24"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="7">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="H6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="16">
+        <v>2</v>
+      </c>
+      <c r="K6" s="16">
+        <v>15</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="17">
+        <v>2</v>
+      </c>
+      <c r="R6" s="17">
+        <v>15</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="W6" s="23"/>
+      <c r="X6" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="17">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="17">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="17">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="16">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16">
+        <v>14</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="17">
+        <v>3</v>
+      </c>
+      <c r="R7" s="17">
+        <v>14</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="W7" s="23"/>
+      <c r="X7" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="17">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ7" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="17">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="17">
+        <v>14</v>
+      </c>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="19">
+        <v>44</v>
+      </c>
+      <c r="D8" s="19">
+        <v>43</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="16">
+        <v>4</v>
+      </c>
+      <c r="K8" s="16">
+        <v>13</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="17">
+        <v>4</v>
+      </c>
+      <c r="R8" s="17">
+        <v>13</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="W8" s="23"/>
+      <c r="X8" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC8" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="17">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ8" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="17">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="17">
+        <v>13</v>
+      </c>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ8" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="19">
+        <v>42</v>
+      </c>
+      <c r="D9" s="19">
+        <v>41</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="16">
+        <v>5</v>
+      </c>
+      <c r="K9" s="16">
+        <v>12</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="17">
+        <v>5</v>
+      </c>
+      <c r="R9" s="17">
+        <v>12</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="W9" s="23"/>
+      <c r="X9" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC9" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="17">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ9" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="17">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="17">
+        <v>12</v>
+      </c>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR9" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV9" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="19">
+        <v>40</v>
+      </c>
+      <c r="D10" s="19">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="16">
+        <v>6</v>
+      </c>
+      <c r="K10" s="16">
+        <v>11</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="17">
+        <v>6</v>
+      </c>
+      <c r="R10" s="17">
+        <v>11</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="V10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="W10" s="23"/>
+      <c r="X10" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>11</v>
+      </c>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="17">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>11</v>
+      </c>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="17">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="17">
+        <v>11</v>
+      </c>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV10" s="24"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="19">
+        <v>38</v>
+      </c>
+      <c r="D11" s="19">
+        <v>37</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="16">
+        <v>7</v>
+      </c>
+      <c r="K11" s="16">
+        <v>10</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>7</v>
+      </c>
+      <c r="R11" s="17">
+        <v>10</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="17">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC11" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ11" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="17">
+        <v>10</v>
+      </c>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="19">
+        <v>36</v>
+      </c>
+      <c r="D12" s="19">
+        <v>35</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="16">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16">
+        <v>9</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>8</v>
+      </c>
+      <c r="R12" s="17">
+        <v>9</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="T12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="17">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC12" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ12" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="17">
+        <v>9</v>
+      </c>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="19">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19">
+        <v>33</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ13" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="19">
+        <v>32</v>
+      </c>
+      <c r="D14" s="19">
+        <v>31</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="O14" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="V14" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AC14" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AJ14" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AQ14" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR14" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV14" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="19">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19">
+        <v>29</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="S15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="W15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV15" s="24"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19">
+        <v>28</v>
+      </c>
+      <c r="D16" s="19">
+        <v>27</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19">
+        <v>2</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>1</v>
+      </c>
+      <c r="R16" s="19">
+        <v>2</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="X16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD16" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="19">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH16" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="19">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO16" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="19">
+        <v>26</v>
+      </c>
+      <c r="D17" s="19">
+        <v>25</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="19">
+        <v>24</v>
+      </c>
+      <c r="D18" s="19">
+        <v>23</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="O18" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="V18" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AC18" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AJ18" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AQ18" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="19">
+        <v>22</v>
+      </c>
+      <c r="D19" s="19">
+        <v>21</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="W19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO19" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ19" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR19" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV19" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="19">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19">
+        <v>19</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+      <c r="R20" s="7">
+        <v>2</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="W20" s="23"/>
+      <c r="X20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ20" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV20" s="24"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="19">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19">
+        <v>17</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="7">
+        <v>3</v>
+      </c>
+      <c r="K21" s="7">
+        <v>4</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="7">
+        <v>3</v>
+      </c>
+      <c r="R21" s="7">
+        <v>4</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="W21" s="23"/>
+      <c r="X21" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA21" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="7">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH21" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ21" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="7">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN21" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO21" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="19">
+        <v>16</v>
+      </c>
+      <c r="D22" s="19">
+        <v>15</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="7">
+        <v>5</v>
+      </c>
+      <c r="K22" s="7">
+        <v>6</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="7">
+        <v>5</v>
+      </c>
+      <c r="R22" s="7">
+        <v>6</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="W22" s="23"/>
+      <c r="X22" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA22" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH22" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ22" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>6</v>
+      </c>
+      <c r="AN22" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO22" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="19">
+        <v>14</v>
+      </c>
+      <c r="D23" s="19">
+        <v>13</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="7">
+        <v>7</v>
+      </c>
+      <c r="K23" s="7">
+        <v>8</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="7">
+        <v>7</v>
+      </c>
+      <c r="R23" s="7">
+        <v>8</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="T23" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="W23" s="23"/>
+      <c r="X23" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA23" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC23" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>8</v>
+      </c>
+      <c r="AG23" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH23" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ23" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="7">
+        <v>7</v>
+      </c>
+      <c r="AM23" s="7">
+        <v>8</v>
+      </c>
+      <c r="AN23" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO23" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ23" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="19">
+        <v>12</v>
+      </c>
+      <c r="D24" s="19">
+        <v>11</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ24" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR24" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS24" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV24" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS25" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="16">
+        <v>2</v>
+      </c>
+      <c r="AU25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV25" s="24"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="O26" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="V26" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AC26" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AJ26" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7">
+        <v>5</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="27"/>
+      <c r="S27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="V27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="W27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="X27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO27" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>1</v>
+      </c>
+      <c r="R28" s="17"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X28" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="17">
+        <v>2</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>2</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X29" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL29" s="17">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="H30" s="23"/>
+      <c r="I30" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" s="17">
+        <v>3</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>3</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="X30" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE30" s="17">
+        <v>3</v>
+      </c>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL30" s="17">
+        <v>3</v>
+      </c>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="H32" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="O32" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="V32" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AC32" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48"/>
+      <c r="AJ32" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="48"/>
+      <c r="AQ32" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR32" s="48"/>
+      <c r="AS32" s="48"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="48"/>
+      <c r="AV32" s="48"/>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="27"/>
+      <c r="L33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="27"/>
+      <c r="S33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="V33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="W33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="X33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV33" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1</v>
+      </c>
+      <c r="D34" s="16">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>1</v>
+      </c>
+      <c r="R34" s="24">
+        <v>2</v>
+      </c>
+      <c r="S34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="T34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="X34" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="24">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE34" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="24">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL34" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="24">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO34" s="24"/>
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS34" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="24">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV34" s="24"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16">
+        <v>2</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1</v>
+      </c>
+      <c r="D36" s="16">
+        <v>2</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>2</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="C45" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AJ18:AO18"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AJ14:AO14"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="AC26:AH26"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AJ26:AO26"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AQ13:AV13"/>
+    <mergeCell ref="AQ18:AV18"/>
+    <mergeCell ref="AQ23:AV23"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="AQ32:AV32"/>
+    <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AQ3:AV3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AQ8:AV8"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="AC32:AH32"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="J33:K33"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pin-Conversion.xlsx
+++ b/Pin-Conversion.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\GitHub\BTT-GTR-V1-PnP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB3D6D-24C6-4412-8086-D83F8FE45769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BCF7B-7932-4D02-BC72-4E3AAAB30501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="7455" windowWidth="21435" windowHeight="19875" activeTab="1" xr2:uid="{9E4D2606-AF85-4D14-8717-62C639C41A9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" activeTab="2" xr2:uid="{9E4D2606-AF85-4D14-8717-62C639C41A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SKR M5 Functions" sheetId="2" r:id="rId2"/>
+    <sheet name="PnP Pin Mapping" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="358">
   <si>
     <t>PnP Pins</t>
   </si>
@@ -932,13 +934,181 @@
   </si>
   <si>
     <t>K-TEMP</t>
+  </si>
+  <si>
+    <t>EXPANSION HEADER</t>
+  </si>
+  <si>
+    <t>POWER EXPANSION HEADER</t>
+  </si>
+  <si>
+    <t>GTR V1.0 PIN MAPPING</t>
+  </si>
+  <si>
+    <t>PnP V1.0 PIN MAPPING</t>
+  </si>
+  <si>
+    <t>CONDITIONS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Power Pins are to be in the same configuration on each connector</t>
+  </si>
+  <si>
+    <t>VAC_SIG_1</t>
+  </si>
+  <si>
+    <t>VAC_SIG_2</t>
+  </si>
+  <si>
+    <t>UP_LIGHT_SIG</t>
+  </si>
+  <si>
+    <t>DOWN_LIGHT_SIG</t>
+  </si>
+  <si>
+    <t>SERVO_1_SIG</t>
+  </si>
+  <si>
+    <t>SERVO_2_SIG</t>
+  </si>
+  <si>
+    <t>GTR V1.0 to PnP V1.0 ADAPTER BOARD PIN MAPPING</t>
+  </si>
+  <si>
+    <t>TFT HEADER</t>
+  </si>
+  <si>
+    <t>WiFi HEADER</t>
+  </si>
+  <si>
+    <t>AUX HEADER 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Separate RS485 communications from other signals where possible</t>
+  </si>
+  <si>
+    <t>MCU_UART_TX</t>
+  </si>
+  <si>
+    <t>MCU_UART_RX</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>AUX2_D1</t>
+  </si>
+  <si>
+    <t>AUX2_A2</t>
+  </si>
+  <si>
+    <t>AUX1_D1</t>
+  </si>
+  <si>
+    <t>AUX1_A1</t>
+  </si>
+  <si>
+    <t>AUX1_A2</t>
+  </si>
+  <si>
+    <t>SERVO-1</t>
+  </si>
+  <si>
+    <t>SERVO-2</t>
+  </si>
+  <si>
+    <t>PnP EXPANSION HEADER 1</t>
+  </si>
+  <si>
+    <t>PnP EXPANSION HEADER 2</t>
+  </si>
+  <si>
+    <t>AUX HEADER 2</t>
+  </si>
+  <si>
+    <t>AUX2_A1</t>
+  </si>
+  <si>
+    <t>RS485_1_HEADER (FEEDERS)</t>
+  </si>
+  <si>
+    <t>RS485_2_HEADER</t>
+  </si>
+  <si>
+    <t>RS485_1_A</t>
+  </si>
+  <si>
+    <t>RS485_1_B</t>
+  </si>
+  <si>
+    <t>RS485_2_A</t>
+  </si>
+  <si>
+    <t>RS485_2_B</t>
+  </si>
+  <si>
+    <t>RS485_3_A</t>
+  </si>
+  <si>
+    <t>RS485_3_B</t>
+  </si>
+  <si>
+    <t>RS485_3_HEADER</t>
+  </si>
+  <si>
+    <t>FUNCTION NAME</t>
+  </si>
+  <si>
+    <t>PIN NAME</t>
+  </si>
+  <si>
+    <t>I2S_CKIN/ TIM8_CH4/SDIO_D1 /I2C3_SDA / DCMI_D3 /PC9</t>
+  </si>
+  <si>
+    <t>JTDO/ TRACESWO/SPI3_SCK / I2S3_CK / SPI1_SCK/PB3</t>
+  </si>
+  <si>
+    <t>AUX_1_D1</t>
+  </si>
+  <si>
+    <t>AUX_1_A1</t>
+  </si>
+  <si>
+    <t>AUX_1_A2</t>
+  </si>
+  <si>
+    <t>GTR V1.0 - EXPANSION HEADER</t>
+  </si>
+  <si>
+    <t>PnP V1.0 - EXPANSION HEADER 1</t>
+  </si>
+  <si>
+    <t>PnP V1.0 - EXPANSION HEADER 2</t>
+  </si>
+  <si>
+    <t>GTR V1.0 - TFT HEADER</t>
+  </si>
+  <si>
+    <t>485_1_TX0</t>
+  </si>
+  <si>
+    <t>485_1_RX1</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,8 +1153,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,8 +1271,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1172,12 +1356,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,15 +1442,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,9 +1450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,40 +1462,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,26 +1489,165 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1329,10 +1658,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7979"/>
       <color rgb="FFE5276B"/>
       <color rgb="FFF26CE8"/>
       <color rgb="FF47E1E5"/>
-      <color rgb="FFFF7979"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1643,10 +1972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9364002A-3071-4909-8F3D-462F50CB00EE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:O30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P51" sqref="K4:P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,19 +2008,19 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="2"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1722,10 +2054,10 @@
       <c r="L5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="58"/>
       <c r="O5" s="5" t="s">
         <v>110</v>
       </c>
@@ -2563,14 +2895,14 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
     </row>
     <row r="33" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K33" s="6"/>
@@ -2624,14 +2956,14 @@
       </c>
     </row>
     <row r="39" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
     </row>
     <row r="40" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K40" s="12" t="s">
@@ -2702,14 +3034,14 @@
       </c>
     </row>
     <row r="45" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
     </row>
     <row r="46" spans="11:16" x14ac:dyDescent="0.25">
       <c r="L46" s="9" t="s">
@@ -2805,213 +3137,234 @@
     <mergeCell ref="K39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="98" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852F6564-8081-4816-8A3D-064F6650C92A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5703125" customWidth="1"/>
+    <col min="24" max="24" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3" customWidth="1"/>
+    <col min="31" max="31" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5703125" customWidth="1"/>
+    <col min="38" max="38" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.5703125" customWidth="1"/>
+    <col min="45" max="46" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="H3" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="O3" s="28" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="O3" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="30"/>
-      <c r="V3" s="25" t="s">
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="67"/>
+      <c r="V3" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AC3" s="31" t="s">
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AC3" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AJ3" s="32" t="s">
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AJ3" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AQ3" s="36" t="s">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AQ3" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="59"/>
+      <c r="L4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="59"/>
+      <c r="S4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="X4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="26" t="s">
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AD4" s="26" t="s">
+      <c r="AD4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="26" t="s">
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AH4" s="26" t="s">
+      <c r="AH4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AJ4" s="26" t="s">
+      <c r="AJ4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AK4" s="26" t="s">
+      <c r="AK4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AL4" s="27" t="s">
+      <c r="AL4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="26" t="s">
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AO4" s="26" t="s">
+      <c r="AO4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AQ4" s="26" t="s">
+      <c r="AQ4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AR4" s="26" t="s">
+      <c r="AR4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS4" s="27" t="s">
+      <c r="AS4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="26" t="s">
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AV4" s="26" t="s">
+      <c r="AV4" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="7">
@@ -3020,110 +3373,110 @@
       <c r="D5" s="7">
         <v>49</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="23"/>
+      <c r="H5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <v>1</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>16</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="14">
         <v>1</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="14">
         <v>16</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="23" t="s">
+      <c r="S5" s="20"/>
+      <c r="T5" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="W5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="14">
         <v>1</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="14">
         <v>16</v>
       </c>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="23" t="s">
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AC5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="AD5" s="23" t="s">
+      <c r="AD5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="14">
         <v>1</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AF5" s="14">
         <v>16</v>
       </c>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="23" t="s">
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AJ5" s="23" t="s">
+      <c r="AJ5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="AK5" s="23" t="s">
+      <c r="AK5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AL5" s="17">
+      <c r="AL5" s="14">
         <v>1</v>
       </c>
-      <c r="AM5" s="17">
+      <c r="AM5" s="14">
         <v>16</v>
       </c>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="23" t="s">
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="23" t="s">
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AS5" s="16">
+      <c r="AS5" s="13">
         <v>1</v>
       </c>
-      <c r="AT5" s="16">
+      <c r="AT5" s="13">
         <v>2</v>
       </c>
-      <c r="AU5" s="23" t="s">
+      <c r="AU5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AV5" s="24"/>
+      <c r="AV5" s="20"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="7">
@@ -3132,86 +3485,86 @@
       <c r="D6" s="7">
         <v>47</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="23"/>
+      <c r="H6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="16">
+      <c r="I6" s="19"/>
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>15</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="23" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="14">
         <v>2</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="14">
         <v>15</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="23" t="s">
+      <c r="S6" s="20"/>
+      <c r="T6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="W6" s="23"/>
-      <c r="X6" s="17">
+      <c r="W6" s="19"/>
+      <c r="X6" s="14">
         <v>2</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="14">
         <v>15</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="23" t="s">
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AC6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="17">
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="14">
         <v>2</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AF6" s="14">
         <v>15</v>
       </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="23" t="s">
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="23" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="17">
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="14">
         <v>2</v>
       </c>
-      <c r="AM6" s="17">
+      <c r="AM6" s="14">
         <v>15</v>
       </c>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="23" t="s">
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="7">
@@ -3220,1586 +3573,1586 @@
       <c r="D7" s="7">
         <v>45</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="16">
+      <c r="I7" s="19"/>
+      <c r="J7" s="13">
         <v>3</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>14</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23" t="s">
+      <c r="L7" s="20"/>
+      <c r="M7" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="17">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="14">
         <v>3</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="14">
         <v>14</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="20"/>
+      <c r="T7" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="V7" s="23" t="s">
+      <c r="V7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="17">
+      <c r="W7" s="19"/>
+      <c r="X7" s="14">
         <v>3</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="14">
         <v>14</v>
       </c>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="23" t="s">
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="AC7" s="23" t="s">
+      <c r="AC7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="17">
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="14">
         <v>3</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AF7" s="14">
         <v>14</v>
       </c>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="23" t="s">
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="AJ7" s="23" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="17">
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="14">
         <v>3</v>
       </c>
-      <c r="AM7" s="17">
+      <c r="AM7" s="14">
         <v>14</v>
       </c>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="23" t="s">
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>44</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <v>43</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="16">
+      <c r="I8" s="19"/>
+      <c r="J8" s="13">
         <v>4</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>13</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="23" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="14">
         <v>4</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="14">
         <v>13</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
+      <c r="S8" s="20"/>
+      <c r="T8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="17">
+      <c r="W8" s="19"/>
+      <c r="X8" s="14">
         <v>4</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="14">
         <v>13</v>
       </c>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="23" t="s">
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AC8" s="23" t="s">
+      <c r="AC8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="17">
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="14">
         <v>4</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AF8" s="14">
         <v>13</v>
       </c>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="23" t="s">
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AJ8" s="23" t="s">
+      <c r="AJ8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="17">
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="14">
         <v>4</v>
       </c>
-      <c r="AM8" s="17">
+      <c r="AM8" s="14">
         <v>13</v>
       </c>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="23" t="s">
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AQ8" s="36" t="s">
+      <c r="AQ8" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>42</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>41</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="16">
+      <c r="I9" s="19"/>
+      <c r="J9" s="13">
         <v>5</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <v>12</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23" t="s">
+      <c r="L9" s="20"/>
+      <c r="M9" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="17">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="14">
         <v>5</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="14">
         <v>12</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="23" t="s">
+      <c r="S9" s="20"/>
+      <c r="T9" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="17">
+      <c r="W9" s="19"/>
+      <c r="X9" s="14">
         <v>5</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="14">
         <v>12</v>
       </c>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="23" t="s">
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AC9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="17">
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="14">
         <v>5</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="14">
         <v>12</v>
       </c>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="23" t="s">
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="AJ9" s="23" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="17">
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="14">
         <v>5</v>
       </c>
-      <c r="AM9" s="17">
+      <c r="AM9" s="14">
         <v>12</v>
       </c>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="23" t="s">
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="AQ9" s="26" t="s">
+      <c r="AQ9" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AR9" s="26" t="s">
+      <c r="AR9" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS9" s="27" t="s">
+      <c r="AS9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="26" t="s">
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AV9" s="26" t="s">
+      <c r="AV9" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>40</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>39</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="16">
+      <c r="I10" s="19"/>
+      <c r="J10" s="13">
         <v>6</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="13">
         <v>11</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="20"/>
+      <c r="M10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="14">
         <v>6</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="14">
         <v>11</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="23" t="s">
+      <c r="S10" s="20"/>
+      <c r="T10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="V10" s="23" t="s">
+      <c r="V10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="W10" s="23"/>
-      <c r="X10" s="17">
+      <c r="W10" s="19"/>
+      <c r="X10" s="14">
         <v>6</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="14">
         <v>11</v>
       </c>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="23" t="s">
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AC10" s="23" t="s">
+      <c r="AC10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="17">
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="14">
         <v>6</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="14">
         <v>11</v>
       </c>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="23" t="s">
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AJ10" s="23" t="s">
+      <c r="AJ10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="17">
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="14">
         <v>6</v>
       </c>
-      <c r="AM10" s="17">
+      <c r="AM10" s="14">
         <v>11</v>
       </c>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="23" t="s">
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="23" t="s">
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AS10" s="16">
+      <c r="AS10" s="13">
         <v>1</v>
       </c>
-      <c r="AT10" s="16">
+      <c r="AT10" s="13">
         <v>2</v>
       </c>
-      <c r="AU10" s="23" t="s">
+      <c r="AU10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AV10" s="24"/>
+      <c r="AV10" s="20"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <v>38</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>37</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <v>7</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="13">
         <v>10</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="20"/>
+      <c r="M11" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="14">
         <v>7</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="14">
         <v>10</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="23" t="s">
+      <c r="S11" s="20"/>
+      <c r="T11" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="W11" s="23" t="s">
+      <c r="W11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="14">
         <v>7</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="14">
         <v>10</v>
       </c>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="23" t="s">
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="AC11" s="23" t="s">
+      <c r="AC11" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="AD11" s="23" t="s">
+      <c r="AD11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="14">
         <v>7</v>
       </c>
-      <c r="AF11" s="17">
+      <c r="AF11" s="14">
         <v>10</v>
       </c>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="23" t="s">
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="AJ11" s="23" t="s">
+      <c r="AJ11" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="AK11" s="23" t="s">
+      <c r="AK11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AL11" s="14">
         <v>7</v>
       </c>
-      <c r="AM11" s="17">
+      <c r="AM11" s="14">
         <v>10</v>
       </c>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="23" t="s">
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>36</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>35</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>8</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="13">
         <v>9</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="20"/>
+      <c r="M12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="14">
         <v>8</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="14">
         <v>9</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="23" t="s">
+      <c r="S12" s="20"/>
+      <c r="T12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="23" t="s">
+      <c r="V12" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="W12" s="23" t="s">
+      <c r="W12" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="14">
         <v>8</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="14">
         <v>9</v>
       </c>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="23" t="s">
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AC12" s="23" t="s">
+      <c r="AC12" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="AD12" s="23" t="s">
+      <c r="AD12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="14">
         <v>8</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="14">
         <v>9</v>
       </c>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="23" t="s">
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AJ12" s="23" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="AK12" s="23" t="s">
+      <c r="AK12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AL12" s="14">
         <v>8</v>
       </c>
-      <c r="AM12" s="17">
+      <c r="AM12" s="14">
         <v>9</v>
       </c>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="23" t="s">
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <v>34</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>33</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="AQ13" s="36" t="s">
+      <c r="AQ13" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="62"/>
+      <c r="AV13" s="62"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>32</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>31</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="O14" s="35" t="s">
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="O14" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="V14" s="25" t="s">
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="V14" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AC14" s="31" t="s">
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AC14" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AJ14" s="32" t="s">
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AJ14" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AQ14" s="26" t="s">
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AQ14" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AR14" s="26" t="s">
+      <c r="AR14" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS14" s="27" t="s">
+      <c r="AS14" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="26" t="s">
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AV14" s="26" t="s">
+      <c r="AV14" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>30</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <v>29</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="26" t="s">
+      <c r="K15" s="61"/>
+      <c r="L15" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="21" t="s">
+      <c r="R15" s="59"/>
+      <c r="S15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="V15" s="21" t="s">
+      <c r="V15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="W15" s="21" t="s">
+      <c r="W15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="21" t="s">
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AA15" s="21" t="s">
+      <c r="AA15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AC15" s="21" t="s">
+      <c r="AC15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" s="21" t="s">
+      <c r="AD15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AE15" s="22" t="s">
+      <c r="AE15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="21" t="s">
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AH15" s="21" t="s">
+      <c r="AH15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AJ15" s="21" t="s">
+      <c r="AJ15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AK15" s="21" t="s">
+      <c r="AK15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AL15" s="22" t="s">
+      <c r="AL15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="21" t="s">
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AO15" s="21" t="s">
+      <c r="AO15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="23" t="s">
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AS15" s="16">
+      <c r="AS15" s="13">
         <v>1</v>
       </c>
-      <c r="AT15" s="16">
+      <c r="AT15" s="13">
         <v>2</v>
       </c>
-      <c r="AU15" s="23" t="s">
+      <c r="AU15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AV15" s="24"/>
+      <c r="AV15" s="20"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="16">
         <v>28</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <v>27</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <v>1</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
         <v>2</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="16">
         <v>1</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="16">
         <v>2</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="V16" s="23" t="s">
+      <c r="V16" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="W16" s="23" t="s">
+      <c r="W16" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="16">
         <v>1</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="16">
         <v>2</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="Z16" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="AA16" s="23" t="s">
+      <c r="AA16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AC16" s="23" t="s">
+      <c r="AC16" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AD16" s="23" t="s">
+      <c r="AD16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AE16" s="19">
+      <c r="AE16" s="16">
         <v>1</v>
       </c>
-      <c r="AF16" s="19">
+      <c r="AF16" s="16">
         <v>2</v>
       </c>
-      <c r="AG16" s="23" t="s">
+      <c r="AG16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AH16" s="23" t="s">
+      <c r="AH16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AJ16" s="23" t="s">
+      <c r="AJ16" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AK16" s="23" t="s">
+      <c r="AK16" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AL16" s="19">
+      <c r="AL16" s="16">
         <v>1</v>
       </c>
-      <c r="AM16" s="19">
+      <c r="AM16" s="16">
         <v>2</v>
       </c>
-      <c r="AN16" s="23" t="s">
+      <c r="AN16" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AO16" s="23" t="s">
+      <c r="AO16" s="19" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <v>26</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="16">
         <v>25</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="32" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="16">
         <v>24</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="16">
         <v>23</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="O18" s="35" t="s">
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="O18" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="V18" s="25" t="s">
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="V18" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AC18" s="31" t="s">
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AC18" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AJ18" s="32" t="s">
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AJ18" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AQ18" s="36" t="s">
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AQ18" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="16">
         <v>22</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="16">
         <v>21</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="21" t="s">
+      <c r="K19" s="59"/>
+      <c r="L19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="22" t="s">
+      <c r="Q19" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="21" t="s">
+      <c r="R19" s="59"/>
+      <c r="S19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="T19" s="21" t="s">
+      <c r="T19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="V19" s="21" t="s">
+      <c r="V19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="W19" s="21" t="s">
+      <c r="W19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="X19" s="22" t="s">
+      <c r="X19" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="21" t="s">
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AA19" s="21" t="s">
+      <c r="AA19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AC19" s="21" t="s">
+      <c r="AC19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AD19" s="21" t="s">
+      <c r="AD19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AE19" s="22" t="s">
+      <c r="AE19" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="21" t="s">
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AH19" s="21" t="s">
+      <c r="AH19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AJ19" s="21" t="s">
+      <c r="AJ19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AK19" s="21" t="s">
+      <c r="AK19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AL19" s="22" t="s">
+      <c r="AL19" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="21" t="s">
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AO19" s="21" t="s">
+      <c r="AO19" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="AQ19" s="26" t="s">
+      <c r="AQ19" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AR19" s="26" t="s">
+      <c r="AR19" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS19" s="27" t="s">
+      <c r="AS19" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AT19" s="27"/>
-      <c r="AU19" s="26" t="s">
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AV19" s="26" t="s">
+      <c r="AV19" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="16">
         <v>20</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="16">
         <v>19</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7">
         <v>2</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="M20" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="P20" s="23"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="7">
         <v>1</v>
       </c>
       <c r="R20" s="7">
         <v>2</v>
       </c>
-      <c r="S20" s="23" t="s">
+      <c r="S20" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="V20" s="23" t="s">
+      <c r="V20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="W20" s="23"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="7">
         <v>1</v>
       </c>
       <c r="Y20" s="7">
         <v>2</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="Z20" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="AA20" s="34" t="s">
+      <c r="AA20" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="AC20" s="23" t="s">
+      <c r="AC20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="AD20" s="23"/>
+      <c r="AD20" s="19"/>
       <c r="AE20" s="7">
         <v>1</v>
       </c>
       <c r="AF20" s="7">
         <v>2</v>
       </c>
-      <c r="AG20" s="23" t="s">
+      <c r="AG20" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="AH20" s="34" t="s">
+      <c r="AH20" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="AJ20" s="23" t="s">
+      <c r="AJ20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="AK20" s="23"/>
+      <c r="AK20" s="19"/>
       <c r="AL20" s="7">
         <v>1</v>
       </c>
       <c r="AM20" s="7">
         <v>2</v>
       </c>
-      <c r="AN20" s="23" t="s">
+      <c r="AN20" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="AO20" s="34" t="s">
+      <c r="AO20" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="23" t="s">
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="AS20" s="16">
+      <c r="AS20" s="13">
         <v>1</v>
       </c>
-      <c r="AT20" s="16">
+      <c r="AT20" s="13">
         <v>2</v>
       </c>
-      <c r="AU20" s="23" t="s">
+      <c r="AU20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AV20" s="24"/>
+      <c r="AV20" s="20"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="16">
         <v>18</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="16">
         <v>17</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="7">
         <v>3</v>
       </c>
       <c r="K21" s="7">
         <v>4</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="P21" s="23"/>
+      <c r="P21" s="19"/>
       <c r="Q21" s="7">
         <v>3</v>
       </c>
       <c r="R21" s="7">
         <v>4</v>
       </c>
-      <c r="S21" s="23" t="s">
+      <c r="S21" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="T21" s="34" t="s">
+      <c r="T21" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="V21" s="23" t="s">
+      <c r="V21" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="W21" s="23"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="7">
         <v>3</v>
       </c>
       <c r="Y21" s="7">
         <v>4</v>
       </c>
-      <c r="Z21" s="23" t="s">
+      <c r="Z21" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AA21" s="34" t="s">
+      <c r="AA21" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="AC21" s="23" t="s">
+      <c r="AC21" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="AD21" s="23"/>
+      <c r="AD21" s="19"/>
       <c r="AE21" s="7">
         <v>3</v>
       </c>
       <c r="AF21" s="7">
         <v>4</v>
       </c>
-      <c r="AG21" s="23" t="s">
+      <c r="AG21" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AH21" s="34" t="s">
+      <c r="AH21" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="AJ21" s="23" t="s">
+      <c r="AJ21" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="AK21" s="23"/>
+      <c r="AK21" s="19"/>
       <c r="AL21" s="7">
         <v>3</v>
       </c>
       <c r="AM21" s="7">
         <v>4</v>
       </c>
-      <c r="AN21" s="23" t="s">
+      <c r="AN21" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AO21" s="34" t="s">
+      <c r="AO21" s="23" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="16">
         <v>16</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="16">
         <v>15</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="7">
         <v>5</v>
       </c>
       <c r="K22" s="7">
         <v>6</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="P22" s="23"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="7">
         <v>5</v>
       </c>
       <c r="R22" s="7">
         <v>6</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S22" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="T22" s="23" t="s">
+      <c r="T22" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="V22" s="23" t="s">
+      <c r="V22" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="W22" s="23"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="7">
         <v>5</v>
       </c>
       <c r="Y22" s="7">
         <v>6</v>
       </c>
-      <c r="Z22" s="23" t="s">
+      <c r="Z22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="AA22" s="23" t="s">
+      <c r="AA22" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="AC22" s="23" t="s">
+      <c r="AC22" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="AD22" s="23"/>
+      <c r="AD22" s="19"/>
       <c r="AE22" s="7">
         <v>5</v>
       </c>
       <c r="AF22" s="7">
         <v>6</v>
       </c>
-      <c r="AG22" s="23" t="s">
+      <c r="AG22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AH22" s="23" t="s">
+      <c r="AH22" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="AJ22" s="23" t="s">
+      <c r="AJ22" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="AK22" s="23"/>
+      <c r="AK22" s="19"/>
       <c r="AL22" s="7">
         <v>5</v>
       </c>
       <c r="AM22" s="7">
         <v>6</v>
       </c>
-      <c r="AN22" s="23" t="s">
+      <c r="AN22" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AO22" s="23" t="s">
+      <c r="AO22" s="19" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="16">
         <v>14</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="16">
         <v>13</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="7">
         <v>7</v>
       </c>
       <c r="K23" s="7">
         <v>8</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="P23" s="23"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="7">
         <v>7</v>
       </c>
       <c r="R23" s="7">
         <v>8</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="T23" s="34" t="s">
+      <c r="T23" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="V23" s="23" t="s">
+      <c r="V23" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="W23" s="23"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="7">
         <v>7</v>
       </c>
       <c r="Y23" s="7">
         <v>8</v>
       </c>
-      <c r="Z23" s="23" t="s">
+      <c r="Z23" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AA23" s="34" t="s">
+      <c r="AA23" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="AC23" s="23" t="s">
+      <c r="AC23" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AD23" s="23"/>
+      <c r="AD23" s="19"/>
       <c r="AE23" s="7">
         <v>7</v>
       </c>
       <c r="AF23" s="7">
         <v>8</v>
       </c>
-      <c r="AG23" s="23" t="s">
+      <c r="AG23" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AH23" s="34" t="s">
+      <c r="AH23" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="AJ23" s="23" t="s">
+      <c r="AJ23" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AK23" s="23"/>
+      <c r="AK23" s="19"/>
       <c r="AL23" s="7">
         <v>7</v>
       </c>
       <c r="AM23" s="7">
         <v>8</v>
       </c>
-      <c r="AN23" s="23" t="s">
+      <c r="AN23" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AO23" s="34" t="s">
+      <c r="AO23" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="AQ23" s="36" t="s">
+      <c r="AQ23" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="16">
         <v>12</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <v>11</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="AQ24" s="26" t="s">
+      <c r="AQ24" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AR24" s="26" t="s">
+      <c r="AR24" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS24" s="27" t="s">
+      <c r="AS24" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="26" t="s">
+      <c r="AT24" s="61"/>
+      <c r="AU24" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AV24" s="26" t="s">
+      <c r="AV24" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="7">
@@ -4808,30 +5161,30 @@
       <c r="D25" s="7">
         <v>9</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="23" t="s">
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AS25" s="16">
+      <c r="AS25" s="13">
         <v>1</v>
       </c>
-      <c r="AT25" s="16">
+      <c r="AT25" s="13">
         <v>2</v>
       </c>
-      <c r="AU25" s="23" t="s">
+      <c r="AU25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AV25" s="24"/>
+      <c r="AV25" s="20"/>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="7">
@@ -4840,58 +5193,58 @@
       <c r="D26" s="7">
         <v>7</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="O26" s="35" t="s">
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="O26" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="V26" s="25" t="s">
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="V26" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AC26" s="31" t="s">
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AC26" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AJ26" s="32" t="s">
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AJ26" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="7">
@@ -4900,98 +5253,98 @@
       <c r="D27" s="7">
         <v>5</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="26" t="s">
+      <c r="K27" s="61"/>
+      <c r="L27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="O27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="P27" s="26" t="s">
+      <c r="P27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="26" t="s">
+      <c r="R27" s="61"/>
+      <c r="S27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="T27" s="26" t="s">
+      <c r="T27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="V27" s="26" t="s">
+      <c r="V27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="W27" s="26" t="s">
+      <c r="W27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="X27" s="27" t="s">
+      <c r="X27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="26" t="s">
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AA27" s="26" t="s">
+      <c r="AA27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AC27" s="26" t="s">
+      <c r="AC27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AD27" s="26" t="s">
+      <c r="AD27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AE27" s="27" t="s">
+      <c r="AE27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="26" t="s">
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AH27" s="26" t="s">
+      <c r="AH27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AJ27" s="26" t="s">
+      <c r="AJ27" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AK27" s="26" t="s">
+      <c r="AK27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AL27" s="27" t="s">
+      <c r="AL27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="26" t="s">
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AO27" s="26" t="s">
+      <c r="AO27" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="19" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="7">
@@ -5000,68 +5353,68 @@
       <c r="D28" s="7">
         <v>3</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="14">
         <v>1</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="14">
         <v>1</v>
       </c>
-      <c r="R28" s="17"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23" t="s">
+      <c r="R28" s="14"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="X28" s="17">
+      <c r="X28" s="14">
         <v>1</v>
       </c>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23" t="s">
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE28" s="17">
+      <c r="AE28" s="14">
         <v>1</v>
       </c>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23" t="s">
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AL28" s="17">
+      <c r="AL28" s="14">
         <v>1</v>
       </c>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="7">
@@ -5070,519 +5423,526 @@
       <c r="D29" s="7">
         <v>1</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="14">
         <v>2</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23" t="s">
+      <c r="K29" s="14"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="14">
         <v>2</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23" t="s">
+      <c r="R29" s="14"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="X29" s="17">
+      <c r="X29" s="14">
         <v>2</v>
       </c>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23" t="s">
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AE29" s="17">
+      <c r="AE29" s="14">
         <v>2</v>
       </c>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23" t="s">
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AL29" s="17">
+      <c r="AL29" s="14">
         <v>2</v>
       </c>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="H30" s="23"/>
-      <c r="I30" s="23" t="s">
+      <c r="H30" s="19"/>
+      <c r="I30" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="14">
         <v>3</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23" t="s">
+      <c r="K30" s="14"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="14">
         <v>3</v>
       </c>
-      <c r="R30" s="17"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23" t="s">
+      <c r="R30" s="14"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="X30" s="17">
+      <c r="X30" s="14">
         <v>3</v>
       </c>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23" t="s">
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AE30" s="17">
+      <c r="AE30" s="14">
         <v>3</v>
       </c>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AJ30" s="23"/>
-      <c r="AK30" s="23" t="s">
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AL30" s="17">
+      <c r="AL30" s="14">
         <v>3</v>
       </c>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="23"/>
-      <c r="AO30" s="23"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="H32" s="44" t="s">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="H32" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="O32" s="48" t="s">
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="O32" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="V32" s="48" t="s">
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="V32" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AC32" s="48" t="s">
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AC32" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AJ32" s="48" t="s">
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AJ32" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="48"/>
-      <c r="AQ32" s="48" t="s">
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AQ32" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="48"/>
-      <c r="AV32" s="48"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
+      <c r="AV32" s="63"/>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="26" t="s">
+      <c r="K33" s="61"/>
+      <c r="L33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="O33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="P33" s="26" t="s">
+      <c r="P33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="Q33" s="27" t="s">
+      <c r="Q33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="27"/>
-      <c r="S33" s="26" t="s">
+      <c r="R33" s="61"/>
+      <c r="S33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="T33" s="26" t="s">
+      <c r="T33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="V33" s="26" t="s">
+      <c r="V33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="W33" s="26" t="s">
+      <c r="W33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="X33" s="27" t="s">
+      <c r="X33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="26" t="s">
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AA33" s="26" t="s">
+      <c r="AA33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AC33" s="26" t="s">
+      <c r="AC33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AD33" s="26" t="s">
+      <c r="AD33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AE33" s="27" t="s">
+      <c r="AE33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="26" t="s">
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AH33" s="26" t="s">
+      <c r="AH33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AJ33" s="26" t="s">
+      <c r="AJ33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AK33" s="26" t="s">
+      <c r="AK33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AL33" s="27" t="s">
+      <c r="AL33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="26" t="s">
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AO33" s="26" t="s">
+      <c r="AO33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AQ33" s="26" t="s">
+      <c r="AQ33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AR33" s="26" t="s">
+      <c r="AR33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS33" s="27" t="s">
+      <c r="AS33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="26" t="s">
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AV33" s="26" t="s">
+      <c r="AV33" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>1</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <v>2</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24" t="s">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q34" s="13">
         <v>1</v>
       </c>
-      <c r="R34" s="24">
+      <c r="R34" s="13">
         <v>2</v>
       </c>
-      <c r="S34" s="24" t="s">
+      <c r="S34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="T34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24" t="s">
+      <c r="T34" s="19"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="X34" s="24">
+      <c r="X34" s="13">
         <v>1</v>
       </c>
-      <c r="Y34" s="24">
+      <c r="Y34" s="13">
         <v>2</v>
       </c>
-      <c r="Z34" s="24" t="s">
+      <c r="Z34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24" t="s">
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AE34" s="24">
+      <c r="AE34" s="13">
         <v>1</v>
       </c>
-      <c r="AF34" s="24">
+      <c r="AF34" s="13">
         <v>2</v>
       </c>
-      <c r="AG34" s="24" t="s">
+      <c r="AG34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AH34" s="24"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="24" t="s">
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AL34" s="24">
+      <c r="AL34" s="13">
         <v>1</v>
       </c>
-      <c r="AM34" s="24">
+      <c r="AM34" s="13">
         <v>2</v>
       </c>
-      <c r="AN34" s="24" t="s">
+      <c r="AN34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AO34" s="24"/>
-      <c r="AQ34" s="24"/>
-      <c r="AR34" s="24" t="s">
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="22"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="AS34" s="24">
+      <c r="AS34" s="13">
         <v>1</v>
       </c>
-      <c r="AT34" s="24">
+      <c r="AT34" s="13">
         <v>2</v>
       </c>
-      <c r="AU34" s="24" t="s">
+      <c r="AU34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AV34" s="24"/>
+      <c r="AV34" s="19"/>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>1</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>2</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="19" t="s">
         <v>192</v>
       </c>
+      <c r="AS35" s="34"/>
+      <c r="AT35" s="34"/>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>1</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="13">
         <v>2</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>1</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="13">
         <v>2</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="13">
         <v>1</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="13">
         <v>2</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="26" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="14">
         <v>1</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="14">
         <v>2</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="14">
         <v>3</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C45" s="18"/>
+      <c r="C45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -5596,14 +5956,12 @@
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AJ18:AO18"/>
     <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="V14:AA14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H3:M3"/>
     <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="AJ14:AO14"/>
     <mergeCell ref="O26:T26"/>
@@ -5612,20 +5970,38 @@
     <mergeCell ref="X27:Y27"/>
     <mergeCell ref="AC26:AH26"/>
     <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AJ26:AO26"/>
     <mergeCell ref="AS9:AT9"/>
     <mergeCell ref="AQ13:AV13"/>
     <mergeCell ref="AQ18:AV18"/>
     <mergeCell ref="AQ23:AV23"/>
     <mergeCell ref="AS14:AT14"/>
     <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="AS24:AT24"/>
     <mergeCell ref="AJ32:AO32"/>
     <mergeCell ref="AL33:AM33"/>
     <mergeCell ref="AQ32:AV32"/>
     <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AJ26:AO26"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="AQ3:AV3"/>
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="AQ8:AV8"/>
@@ -5637,27 +6013,3064 @@
     <mergeCell ref="AE33:AF33"/>
     <mergeCell ref="AJ3:AO3"/>
     <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="O3:T3"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F5349-5EBA-4B4C-9698-5FB3F91BF485}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AC103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="I4" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="P4" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="W4" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="59"/>
+      <c r="M5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="59"/>
+      <c r="T5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="16">
+        <v>50</v>
+      </c>
+      <c r="E6" s="16">
+        <v>49</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35">
+        <v>2</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="16">
+        <v>5</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="20"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="16">
+        <v>48</v>
+      </c>
+      <c r="E7" s="16">
+        <v>47</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="35">
+        <v>3</v>
+      </c>
+      <c r="L7" s="35">
+        <v>4</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="16">
+        <v>4</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" s="20"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="16">
+        <v>46</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="35">
+        <v>5</v>
+      </c>
+      <c r="L8" s="35">
+        <v>6</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="P8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="R8" s="16">
+        <v>3</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" s="20"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="16">
+        <v>44</v>
+      </c>
+      <c r="E9" s="16">
+        <v>43</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="35">
+        <v>7</v>
+      </c>
+      <c r="L9" s="35">
+        <v>8</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="P9" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="R9" s="16">
+        <v>2</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB9" s="20"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="16">
+        <v>42</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="35">
+        <v>9</v>
+      </c>
+      <c r="L10" s="35">
+        <v>10</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="P10" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="R10" s="16">
+        <v>1</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="16">
+        <v>40</v>
+      </c>
+      <c r="E11" s="16">
+        <v>39</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="35">
+        <v>11</v>
+      </c>
+      <c r="L11" s="35">
+        <v>12</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="16">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16">
+        <v>37</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="16">
+        <v>36</v>
+      </c>
+      <c r="E13" s="16">
+        <v>35</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="16">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16">
+        <v>33</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="16">
+        <v>32</v>
+      </c>
+      <c r="E15" s="16">
+        <v>31</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="16">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16">
+        <v>29</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16">
+        <v>28</v>
+      </c>
+      <c r="E17" s="16">
+        <v>27</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="16">
+        <v>26</v>
+      </c>
+      <c r="E18" s="16">
+        <v>25</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="16">
+        <v>24</v>
+      </c>
+      <c r="E19" s="16">
+        <v>23</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="16">
+        <v>22</v>
+      </c>
+      <c r="E20" s="16">
+        <v>21</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="16">
+        <v>20</v>
+      </c>
+      <c r="E21" s="16">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="16">
+        <v>18</v>
+      </c>
+      <c r="E22" s="16">
+        <v>17</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="16">
+        <v>16</v>
+      </c>
+      <c r="E23" s="16">
+        <v>15</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="16">
+        <v>14</v>
+      </c>
+      <c r="E24" s="16">
+        <v>13</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="16">
+        <v>12</v>
+      </c>
+      <c r="E25" s="16">
+        <v>11</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="16">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16">
+        <v>9</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="16">
+        <v>8</v>
+      </c>
+      <c r="E27" s="16">
+        <v>7</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="16">
+        <v>6</v>
+      </c>
+      <c r="E28" s="16">
+        <v>5</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
+      <c r="C30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I34" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="W34" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA34" s="78"/>
+      <c r="AB34" s="79"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="I35" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" s="76"/>
+      <c r="M35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="O35" s="39"/>
+      <c r="P35" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="R35" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="S35" s="76"/>
+      <c r="T35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="U35" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="W35" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="X35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z35" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB35" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="43">
+        <v>1</v>
+      </c>
+      <c r="L36" s="43">
+        <v>2</v>
+      </c>
+      <c r="M36" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="N36" s="46"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" s="43">
+        <v>1</v>
+      </c>
+      <c r="S36" s="43">
+        <v>2</v>
+      </c>
+      <c r="T36" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="U36" s="46"/>
+      <c r="W36" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="54">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="55">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="40"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="43">
+        <v>3</v>
+      </c>
+      <c r="L37" s="43">
+        <v>4</v>
+      </c>
+      <c r="M37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="48"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" s="43">
+        <v>3</v>
+      </c>
+      <c r="S37" s="43">
+        <v>4</v>
+      </c>
+      <c r="T37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="U37" s="48"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y37" s="54">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="55">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB37" s="19"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="I38" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" s="42"/>
+      <c r="K38" s="43">
+        <v>5</v>
+      </c>
+      <c r="L38" s="43">
+        <v>6</v>
+      </c>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" s="39"/>
+      <c r="P38" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="43">
+        <v>5</v>
+      </c>
+      <c r="S38" s="43">
+        <v>6</v>
+      </c>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="W38" s="19"/>
+      <c r="X38" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y38" s="54">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="55">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB38" s="19"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="I39" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="43">
+        <v>7</v>
+      </c>
+      <c r="L39" s="43">
+        <v>8</v>
+      </c>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" s="39"/>
+      <c r="P39" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43">
+        <v>7</v>
+      </c>
+      <c r="S39" s="43">
+        <v>8</v>
+      </c>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="I40" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" s="42"/>
+      <c r="K40" s="43">
+        <v>9</v>
+      </c>
+      <c r="L40" s="43">
+        <v>10</v>
+      </c>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O40" s="39"/>
+      <c r="P40" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="43">
+        <v>9</v>
+      </c>
+      <c r="S40" s="43">
+        <v>10</v>
+      </c>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="W40" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="79"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="I41" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="43">
+        <v>11</v>
+      </c>
+      <c r="L41" s="43">
+        <v>12</v>
+      </c>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" s="39"/>
+      <c r="P41" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43">
+        <v>11</v>
+      </c>
+      <c r="S41" s="43">
+        <v>12</v>
+      </c>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="W41" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="X41" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y41" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z41" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA41" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB41" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="I42" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="J42" s="42"/>
+      <c r="K42" s="43">
+        <v>13</v>
+      </c>
+      <c r="L42" s="43">
+        <v>14</v>
+      </c>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" s="39"/>
+      <c r="P42" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="43">
+        <v>13</v>
+      </c>
+      <c r="S42" s="43">
+        <v>14</v>
+      </c>
+      <c r="T42" s="44"/>
+      <c r="U42" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="W42" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="55">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="I43" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="42"/>
+      <c r="K43" s="43">
+        <v>15</v>
+      </c>
+      <c r="L43" s="43">
+        <v>16</v>
+      </c>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" s="39"/>
+      <c r="P43" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43">
+        <v>15</v>
+      </c>
+      <c r="S43" s="43">
+        <v>16</v>
+      </c>
+      <c r="T43" s="44"/>
+      <c r="U43" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="W43" s="19"/>
+      <c r="X43" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y43" s="43">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="55">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB43" s="45"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="I44" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="43">
+        <v>17</v>
+      </c>
+      <c r="L44" s="43">
+        <v>18</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O44" s="39"/>
+      <c r="P44" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="43">
+        <v>17</v>
+      </c>
+      <c r="S44" s="43">
+        <v>18</v>
+      </c>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y44" s="43">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="55">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB44" s="49"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="43">
+        <v>19</v>
+      </c>
+      <c r="L45" s="50">
+        <v>20</v>
+      </c>
+      <c r="M45" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="N45" s="49"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="R45" s="43">
+        <v>19</v>
+      </c>
+      <c r="S45" s="50">
+        <v>20</v>
+      </c>
+      <c r="T45" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="U45" s="49"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I46" s="48"/>
+      <c r="J46" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="43">
+        <v>21</v>
+      </c>
+      <c r="L46" s="43">
+        <v>22</v>
+      </c>
+      <c r="M46" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N46" s="47"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R46" s="43">
+        <v>21</v>
+      </c>
+      <c r="S46" s="43">
+        <v>22</v>
+      </c>
+      <c r="T46" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="U46" s="47"/>
+      <c r="W46" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="Z46" s="75"/>
+      <c r="AA46" s="75"/>
+      <c r="AB46" s="75"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I47" s="46"/>
+      <c r="J47" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="K47" s="43">
+        <v>23</v>
+      </c>
+      <c r="L47" s="43">
+        <v>24</v>
+      </c>
+      <c r="M47" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="N47" s="45"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="R47" s="43">
+        <v>23</v>
+      </c>
+      <c r="S47" s="43">
+        <v>24</v>
+      </c>
+      <c r="T47" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="U47" s="45"/>
+      <c r="W47" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="X47" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y47" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z47" s="76"/>
+      <c r="AA47" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB47" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y48" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="43">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB48" s="49"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y49" s="43">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="43">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB49" s="45"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I50" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="P50" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="75"/>
+      <c r="T50" s="75"/>
+      <c r="U50" s="75"/>
+      <c r="W50" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="43">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="43">
+        <v>6</v>
+      </c>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I51" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="L51" s="76"/>
+      <c r="M51" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N51" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="P51" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q51" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="R51" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="S51" s="76"/>
+      <c r="T51" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="U51" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I52" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="43">
+        <v>1</v>
+      </c>
+      <c r="L52" s="43">
+        <v>2</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="43">
+        <v>1</v>
+      </c>
+      <c r="S52" s="43">
+        <v>2</v>
+      </c>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="W52" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA52" s="78"/>
+      <c r="AB52" s="79"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I53" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J53" s="19"/>
+      <c r="K53" s="43">
+        <v>3</v>
+      </c>
+      <c r="L53" s="43">
+        <v>4</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P53" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="43">
+        <v>3</v>
+      </c>
+      <c r="S53" s="43">
+        <v>4</v>
+      </c>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="W53" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="X53" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y53" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z53" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA53" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB53" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I54" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="19"/>
+      <c r="K54" s="43">
+        <v>5</v>
+      </c>
+      <c r="L54" s="43">
+        <v>6</v>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="43">
+        <v>5</v>
+      </c>
+      <c r="S54" s="43">
+        <v>6</v>
+      </c>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y54" s="54">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="55">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB54" s="49"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I55" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="43">
+        <v>7</v>
+      </c>
+      <c r="L55" s="43">
+        <v>8</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="P55" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="43">
+        <v>7</v>
+      </c>
+      <c r="S55" s="43">
+        <v>8</v>
+      </c>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y55" s="54">
+        <v>2</v>
+      </c>
+      <c r="Z55" s="55">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB55" s="45"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I56" s="48"/>
+      <c r="J56" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56" s="43">
+        <v>9</v>
+      </c>
+      <c r="L56" s="43">
+        <v>10</v>
+      </c>
+      <c r="M56" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="N56" s="45"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="R56" s="43">
+        <v>9</v>
+      </c>
+      <c r="S56" s="43">
+        <v>10</v>
+      </c>
+      <c r="T56" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="U56" s="45"/>
+      <c r="W56" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="54">
+        <v>3</v>
+      </c>
+      <c r="Z56" s="55">
+        <v>3</v>
+      </c>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W57" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="52">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="53">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="80"/>
+      <c r="V60" s="80"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="80"/>
+      <c r="Y60" s="80"/>
+      <c r="Z60" s="80"/>
+      <c r="AA60" s="80"/>
+      <c r="AB60" s="80"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B62" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="I62" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="59"/>
+      <c r="F63" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J63" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="L63" s="76"/>
+      <c r="M63" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N63" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B64" s="37"/>
+      <c r="C64" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="16">
+        <v>50</v>
+      </c>
+      <c r="E64" s="16">
+        <v>49</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="43">
+        <v>1</v>
+      </c>
+      <c r="L64" s="43">
+        <v>2</v>
+      </c>
+      <c r="M64" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="N64" s="46"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="37"/>
+      <c r="C65" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="16">
+        <v>48</v>
+      </c>
+      <c r="E65" s="16">
+        <v>47</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" s="43">
+        <v>3</v>
+      </c>
+      <c r="L65" s="43">
+        <v>4</v>
+      </c>
+      <c r="M65" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N65" s="48"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="16">
+        <v>46</v>
+      </c>
+      <c r="E66" s="16">
+        <v>45</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="20"/>
+      <c r="I66" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J66" s="42"/>
+      <c r="K66" s="43">
+        <v>5</v>
+      </c>
+      <c r="L66" s="43">
+        <v>6</v>
+      </c>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="37"/>
+      <c r="C67" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="16">
+        <v>44</v>
+      </c>
+      <c r="E67" s="16">
+        <v>43</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="I67" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="J67" s="42"/>
+      <c r="K67" s="43">
+        <v>7</v>
+      </c>
+      <c r="L67" s="43">
+        <v>8</v>
+      </c>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="37"/>
+      <c r="C68" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="16">
+        <v>42</v>
+      </c>
+      <c r="E68" s="16">
+        <v>41</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="20"/>
+      <c r="I68" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="J68" s="42"/>
+      <c r="K68" s="43">
+        <v>9</v>
+      </c>
+      <c r="L68" s="43">
+        <v>10</v>
+      </c>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="37"/>
+      <c r="C69" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="16">
+        <v>40</v>
+      </c>
+      <c r="E69" s="16">
+        <v>39</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="I69" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J69" s="42"/>
+      <c r="K69" s="43">
+        <v>11</v>
+      </c>
+      <c r="L69" s="43">
+        <v>12</v>
+      </c>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="37"/>
+      <c r="C70" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="16">
+        <v>38</v>
+      </c>
+      <c r="E70" s="16">
+        <v>37</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="20"/>
+      <c r="I70" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="J70" s="42"/>
+      <c r="K70" s="43">
+        <v>13</v>
+      </c>
+      <c r="L70" s="43">
+        <v>14</v>
+      </c>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="37"/>
+      <c r="C71" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="16">
+        <v>36</v>
+      </c>
+      <c r="E71" s="16">
+        <v>35</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I71" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J71" s="42"/>
+      <c r="K71" s="43">
+        <v>15</v>
+      </c>
+      <c r="L71" s="43">
+        <v>16</v>
+      </c>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="16">
+        <v>34</v>
+      </c>
+      <c r="E72" s="16">
+        <v>33</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="I72" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="19"/>
+      <c r="K72" s="43">
+        <v>17</v>
+      </c>
+      <c r="L72" s="43">
+        <v>18</v>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="37"/>
+      <c r="C73" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="16">
+        <v>32</v>
+      </c>
+      <c r="E73" s="16">
+        <v>31</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I73" s="51"/>
+      <c r="J73" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K73" s="43">
+        <v>19</v>
+      </c>
+      <c r="L73" s="50">
+        <v>20</v>
+      </c>
+      <c r="M73" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="N73" s="49"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="37"/>
+      <c r="C74" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="16">
+        <v>30</v>
+      </c>
+      <c r="E74" s="16">
+        <v>29</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="20"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="K74" s="43">
+        <v>21</v>
+      </c>
+      <c r="L74" s="43">
+        <v>22</v>
+      </c>
+      <c r="M74" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N74" s="47"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="16">
+        <v>28</v>
+      </c>
+      <c r="E75" s="16">
+        <v>27</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="K75" s="43">
+        <v>23</v>
+      </c>
+      <c r="L75" s="43">
+        <v>24</v>
+      </c>
+      <c r="M75" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="N75" s="45"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="37"/>
+      <c r="C76" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="16">
+        <v>26</v>
+      </c>
+      <c r="E76" s="16">
+        <v>25</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="37"/>
+      <c r="C77" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="16">
+        <v>24</v>
+      </c>
+      <c r="E77" s="16">
+        <v>23</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="I77" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="37"/>
+      <c r="C78" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="16">
+        <v>22</v>
+      </c>
+      <c r="E78" s="16">
+        <v>21</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G78" s="20"/>
+      <c r="I78" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J78" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="K78" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="L78" s="76"/>
+      <c r="M78" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="N78" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="16">
+        <v>20</v>
+      </c>
+      <c r="E79" s="16">
+        <v>19</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" s="20"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K79" s="43">
+        <v>1</v>
+      </c>
+      <c r="L79" s="43">
+        <v>2</v>
+      </c>
+      <c r="M79" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="N79" s="46"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="37"/>
+      <c r="C80" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="16">
+        <v>18</v>
+      </c>
+      <c r="E80" s="16">
+        <v>17</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G80" s="20"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K80" s="43">
+        <v>3</v>
+      </c>
+      <c r="L80" s="43">
+        <v>4</v>
+      </c>
+      <c r="M80" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N80" s="48"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="37"/>
+      <c r="C81" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="16">
+        <v>16</v>
+      </c>
+      <c r="E81" s="16">
+        <v>15</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="20"/>
+      <c r="I81" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="42"/>
+      <c r="K81" s="43">
+        <v>5</v>
+      </c>
+      <c r="L81" s="43">
+        <v>6</v>
+      </c>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="37"/>
+      <c r="C82" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="16">
+        <v>14</v>
+      </c>
+      <c r="E82" s="16">
+        <v>13</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" s="20"/>
+      <c r="I82" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="42"/>
+      <c r="K82" s="43">
+        <v>7</v>
+      </c>
+      <c r="L82" s="43">
+        <v>8</v>
+      </c>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="37"/>
+      <c r="C83" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="16">
+        <v>12</v>
+      </c>
+      <c r="E83" s="16">
+        <v>11</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" s="20"/>
+      <c r="I83" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="42"/>
+      <c r="K83" s="43">
+        <v>9</v>
+      </c>
+      <c r="L83" s="43">
+        <v>10</v>
+      </c>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="37"/>
+      <c r="C84" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="16">
+        <v>10</v>
+      </c>
+      <c r="E84" s="16">
+        <v>9</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G84" s="20"/>
+      <c r="I84" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="42"/>
+      <c r="K84" s="43">
+        <v>11</v>
+      </c>
+      <c r="L84" s="43">
+        <v>12</v>
+      </c>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="37"/>
+      <c r="C85" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="16">
+        <v>8</v>
+      </c>
+      <c r="E85" s="16">
+        <v>7</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G85" s="20"/>
+      <c r="I85" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="42"/>
+      <c r="K85" s="43">
+        <v>13</v>
+      </c>
+      <c r="L85" s="43">
+        <v>14</v>
+      </c>
+      <c r="M85" s="44"/>
+      <c r="N85" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="37"/>
+      <c r="C86" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="16">
+        <v>6</v>
+      </c>
+      <c r="E86" s="16">
+        <v>5</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G86" s="20"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="43">
+        <v>15</v>
+      </c>
+      <c r="L86" s="43">
+        <v>16</v>
+      </c>
+      <c r="M86" s="44"/>
+      <c r="N86" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="37"/>
+      <c r="C87" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="16">
+        <v>4</v>
+      </c>
+      <c r="E87" s="16">
+        <v>3</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" s="20"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="43">
+        <v>17</v>
+      </c>
+      <c r="L87" s="43">
+        <v>18</v>
+      </c>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="37"/>
+      <c r="C88" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="16">
+        <v>2</v>
+      </c>
+      <c r="E88" s="16">
+        <v>1</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="20"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K88" s="43">
+        <v>19</v>
+      </c>
+      <c r="L88" s="50">
+        <v>20</v>
+      </c>
+      <c r="M88" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="N88" s="49"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I89" s="48"/>
+      <c r="J89" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="K89" s="43">
+        <v>21</v>
+      </c>
+      <c r="L89" s="43">
+        <v>22</v>
+      </c>
+      <c r="M89" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N89" s="47"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="K90" s="43">
+        <v>23</v>
+      </c>
+      <c r="L90" s="43">
+        <v>24</v>
+      </c>
+      <c r="M90" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="N90" s="45"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="59"/>
+      <c r="F91" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="37"/>
+      <c r="C92" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="16">
+        <v>5</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="37"/>
+      <c r="C93" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="16">
+        <v>4</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="16">
+        <v>3</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="16">
+        <v>2</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="37"/>
+      <c r="C96" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="16">
+        <v>1</v>
+      </c>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="59"/>
+      <c r="F99" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D100" s="16">
+        <v>1</v>
+      </c>
+      <c r="E100" s="16">
+        <v>2</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="20"/>
+      <c r="C101" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="16">
+        <v>3</v>
+      </c>
+      <c r="E101" s="16">
+        <v>4</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G101" s="20"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="20"/>
+      <c r="D102" s="16">
+        <v>5</v>
+      </c>
+      <c r="E102" s="16">
+        <v>6</v>
+      </c>
+      <c r="F102" s="20"/>
+      <c r="G102" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="20"/>
+      <c r="C103" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" s="16">
+        <v>7</v>
+      </c>
+      <c r="E103" s="16">
+        <v>8</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="A32:AB32"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="P34:U34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A60:AB60"/>
+    <mergeCell ref="P50:U50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="W46:AB46"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="I77:N77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="B90:G90"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pin-Conversion.xlsx
+++ b/Pin-Conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\GitHub\BTT-GTR-V1-PnP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BCF7B-7932-4D02-BC72-4E3AAAB30501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A2F3D5-8138-4C0F-97BA-0F5BD775207B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" activeTab="2" xr2:uid="{9E4D2606-AF85-4D14-8717-62C639C41A9B}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" activeTab="2" xr2:uid="{9E4D2606-AF85-4D14-8717-62C639C41A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="PnP Pin Mapping" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="363">
   <si>
     <t>PnP Pins</t>
   </si>
@@ -1102,6 +1101,21 @@
   </si>
   <si>
     <t>PC6</t>
+  </si>
+  <si>
+    <t>M/MISO</t>
+  </si>
+  <si>
+    <t>M/MOSI</t>
+  </si>
+  <si>
+    <t>SPI/SCK</t>
+  </si>
+  <si>
+    <t>SPI/MISO</t>
+  </si>
+  <si>
+    <t>M/SCK</t>
   </si>
 </sst>
 </file>
@@ -1574,13 +1588,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1589,7 +1621,10 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,32 +1636,8 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1634,7 +1645,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1643,11 +1654,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3184,53 +3198,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="H3" s="71" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="H3" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="O3" s="65" t="s">
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="O3" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="67"/>
-      <c r="V3" s="68" t="s">
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="74"/>
+      <c r="V3" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AC3" s="69" t="s">
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AC3" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AJ3" s="64" t="s">
         <v>197</v>
       </c>
@@ -3239,14 +3253,14 @@
       <c r="AM3" s="64"/>
       <c r="AN3" s="64"/>
       <c r="AO3" s="64"/>
-      <c r="AQ3" s="62" t="s">
+      <c r="AQ3" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -3255,10 +3269,10 @@
       <c r="B4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="21" t="s">
         <v>188</v>
       </c>
@@ -3271,10 +3285,10 @@
       <c r="I4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="17" t="s">
         <v>188</v>
       </c>
@@ -3287,10 +3301,10 @@
       <c r="P4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="59"/>
+      <c r="R4" s="60"/>
       <c r="S4" s="17" t="s">
         <v>188</v>
       </c>
@@ -3303,10 +3317,10 @@
       <c r="W4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="X4" s="61" t="s">
+      <c r="X4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="61"/>
+      <c r="Y4" s="66"/>
       <c r="Z4" s="21" t="s">
         <v>188</v>
       </c>
@@ -3319,10 +3333,10 @@
       <c r="AD4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AE4" s="61" t="s">
+      <c r="AE4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="61"/>
+      <c r="AF4" s="66"/>
       <c r="AG4" s="21" t="s">
         <v>188</v>
       </c>
@@ -3335,10 +3349,10 @@
       <c r="AK4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AL4" s="61" t="s">
+      <c r="AL4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="61"/>
+      <c r="AM4" s="66"/>
       <c r="AN4" s="21" t="s">
         <v>188</v>
       </c>
@@ -3351,10 +3365,10 @@
       <c r="AR4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS4" s="61" t="s">
+      <c r="AS4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AT4" s="61"/>
+      <c r="AT4" s="66"/>
       <c r="AU4" s="21" t="s">
         <v>188</v>
       </c>
@@ -3739,14 +3753,14 @@
       <c r="AO8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AQ8" s="62" t="s">
+      <c r="AQ8" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -3843,10 +3857,10 @@
       <c r="AR9" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS9" s="61" t="s">
+      <c r="AS9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AT9" s="61"/>
+      <c r="AT9" s="66"/>
       <c r="AU9" s="21" t="s">
         <v>188</v>
       </c>
@@ -4177,14 +4191,14 @@
       <c r="F13" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="AQ13" s="62" t="s">
+      <c r="AQ13" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
@@ -4205,38 +4219,38 @@
       <c r="F14" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="O14" s="72" t="s">
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="O14" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="V14" s="68" t="s">
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="V14" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AC14" s="69" t="s">
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AC14" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
       <c r="AJ14" s="64" t="s">
         <v>280</v>
       </c>
@@ -4251,10 +4265,10 @@
       <c r="AR14" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS14" s="61" t="s">
+      <c r="AS14" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AT14" s="61"/>
+      <c r="AT14" s="66"/>
       <c r="AU14" s="21" t="s">
         <v>188</v>
       </c>
@@ -4287,10 +4301,10 @@
       <c r="I15" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="61"/>
+      <c r="K15" s="66"/>
       <c r="L15" s="21" t="s">
         <v>188</v>
       </c>
@@ -4303,10 +4317,10 @@
       <c r="P15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q15" s="59" t="s">
+      <c r="Q15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="59"/>
+      <c r="R15" s="60"/>
       <c r="S15" s="17" t="s">
         <v>188</v>
       </c>
@@ -4319,10 +4333,10 @@
       <c r="W15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="X15" s="59" t="s">
+      <c r="X15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="59"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="17" t="s">
         <v>188</v>
       </c>
@@ -4335,10 +4349,10 @@
       <c r="AD15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AE15" s="59" t="s">
+      <c r="AE15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AF15" s="59"/>
+      <c r="AF15" s="60"/>
       <c r="AG15" s="17" t="s">
         <v>188</v>
       </c>
@@ -4351,10 +4365,10 @@
       <c r="AK15" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AL15" s="59" t="s">
+      <c r="AL15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AM15" s="59"/>
+      <c r="AM15" s="60"/>
       <c r="AN15" s="17" t="s">
         <v>188</v>
       </c>
@@ -4525,38 +4539,38 @@
       <c r="F18" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="O18" s="72" t="s">
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="O18" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="V18" s="68" t="s">
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="V18" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AC18" s="69" t="s">
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AC18" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
       <c r="AJ18" s="64" t="s">
         <v>248</v>
       </c>
@@ -4565,14 +4579,14 @@
       <c r="AM18" s="64"/>
       <c r="AN18" s="64"/>
       <c r="AO18" s="64"/>
-      <c r="AQ18" s="62" t="s">
+      <c r="AQ18" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -4599,10 +4613,10 @@
       <c r="I19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="59"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="17" t="s">
         <v>188</v>
       </c>
@@ -4615,10 +4629,10 @@
       <c r="P19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="59" t="s">
+      <c r="Q19" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="R19" s="59"/>
+      <c r="R19" s="60"/>
       <c r="S19" s="17" t="s">
         <v>188</v>
       </c>
@@ -4631,10 +4645,10 @@
       <c r="W19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="X19" s="59" t="s">
+      <c r="X19" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="Y19" s="59"/>
+      <c r="Y19" s="60"/>
       <c r="Z19" s="17" t="s">
         <v>188</v>
       </c>
@@ -4647,10 +4661,10 @@
       <c r="AD19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AE19" s="59" t="s">
+      <c r="AE19" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AF19" s="59"/>
+      <c r="AF19" s="60"/>
       <c r="AG19" s="17" t="s">
         <v>188</v>
       </c>
@@ -4663,10 +4677,10 @@
       <c r="AK19" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AL19" s="59" t="s">
+      <c r="AL19" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AM19" s="59"/>
+      <c r="AM19" s="60"/>
       <c r="AN19" s="17" t="s">
         <v>188</v>
       </c>
@@ -4679,10 +4693,10 @@
       <c r="AR19" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS19" s="61" t="s">
+      <c r="AS19" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AT19" s="61"/>
+      <c r="AT19" s="66"/>
       <c r="AU19" s="21" t="s">
         <v>188</v>
       </c>
@@ -5103,14 +5117,14 @@
       <c r="AO23" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="AQ23" s="62" t="s">
+      <c r="AQ23" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="68"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="68"/>
+      <c r="AV23" s="68"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
@@ -5137,10 +5151,10 @@
       <c r="AR24" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS24" s="61" t="s">
+      <c r="AS24" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AT24" s="61"/>
+      <c r="AT24" s="66"/>
       <c r="AU24" s="21" t="s">
         <v>188</v>
       </c>
@@ -5199,38 +5213,38 @@
       <c r="F26" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="O26" s="72" t="s">
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="O26" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="V26" s="68" t="s">
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="V26" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AC26" s="69" t="s">
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AC26" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
       <c r="AJ26" s="64" t="s">
         <v>237</v>
       </c>
@@ -5265,10 +5279,10 @@
       <c r="I27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="61"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="21" t="s">
         <v>188</v>
       </c>
@@ -5281,10 +5295,10 @@
       <c r="P27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="Q27" s="61" t="s">
+      <c r="Q27" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="61"/>
+      <c r="R27" s="66"/>
       <c r="S27" s="21" t="s">
         <v>188</v>
       </c>
@@ -5297,10 +5311,10 @@
       <c r="W27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="X27" s="61" t="s">
+      <c r="X27" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="61"/>
+      <c r="Y27" s="66"/>
       <c r="Z27" s="21" t="s">
         <v>188</v>
       </c>
@@ -5313,10 +5327,10 @@
       <c r="AD27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AE27" s="61" t="s">
+      <c r="AE27" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AF27" s="61"/>
+      <c r="AF27" s="66"/>
       <c r="AG27" s="21" t="s">
         <v>188</v>
       </c>
@@ -5329,10 +5343,10 @@
       <c r="AK27" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AL27" s="61" t="s">
+      <c r="AL27" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AM27" s="61"/>
+      <c r="AM27" s="66"/>
       <c r="AN27" s="21" t="s">
         <v>188</v>
       </c>
@@ -5533,62 +5547,62 @@
       <c r="AO30" s="19"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="H32" s="60" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="H32" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="O32" s="63" t="s">
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="O32" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="V32" s="63" t="s">
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="V32" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AC32" s="63" t="s">
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
+      <c r="AC32" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AJ32" s="63" t="s">
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="69"/>
+      <c r="AJ32" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AQ32" s="63" t="s">
+      <c r="AK32" s="69"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="69"/>
+      <c r="AO32" s="69"/>
+      <c r="AQ32" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="69"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="69"/>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
@@ -5597,10 +5611,10 @@
       <c r="B33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="21" t="s">
         <v>188</v>
       </c>
@@ -5613,10 +5627,10 @@
       <c r="I33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="J33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="61"/>
+      <c r="K33" s="66"/>
       <c r="L33" s="21" t="s">
         <v>188</v>
       </c>
@@ -5629,10 +5643,10 @@
       <c r="P33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="Q33" s="61" t="s">
+      <c r="Q33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="61"/>
+      <c r="R33" s="66"/>
       <c r="S33" s="21" t="s">
         <v>188</v>
       </c>
@@ -5645,10 +5659,10 @@
       <c r="W33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="X33" s="61" t="s">
+      <c r="X33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="Y33" s="61"/>
+      <c r="Y33" s="66"/>
       <c r="Z33" s="21" t="s">
         <v>188</v>
       </c>
@@ -5661,10 +5675,10 @@
       <c r="AD33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AE33" s="61" t="s">
+      <c r="AE33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AF33" s="61"/>
+      <c r="AF33" s="66"/>
       <c r="AG33" s="21" t="s">
         <v>188</v>
       </c>
@@ -5677,10 +5691,10 @@
       <c r="AK33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AL33" s="61" t="s">
+      <c r="AL33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AM33" s="61"/>
+      <c r="AM33" s="66"/>
       <c r="AN33" s="21" t="s">
         <v>188</v>
       </c>
@@ -5693,10 +5707,10 @@
       <c r="AR33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AS33" s="61" t="s">
+      <c r="AS33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AT33" s="61"/>
+      <c r="AT33" s="66"/>
       <c r="AU33" s="21" t="s">
         <v>188</v>
       </c>
@@ -5894,10 +5908,10 @@
       <c r="B41" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="21" t="s">
         <v>188</v>
       </c>
@@ -5946,6 +5960,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="AQ3:AV3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AQ8:AV8"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="AC32:AH32"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AC14:AH14"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="AQ32:AV32"/>
+    <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AJ26:AO26"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AQ13:AV13"/>
+    <mergeCell ref="AQ18:AV18"/>
+    <mergeCell ref="AQ23:AV23"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AJ14:AO14"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="AC26:AH26"/>
+    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="AL15:AM15"/>
     <mergeCell ref="O18:T18"/>
@@ -5962,59 +6029,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="H3:M3"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AJ14:AO14"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="V26:AA26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="AC26:AH26"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AQ13:AV13"/>
-    <mergeCell ref="AQ18:AV18"/>
-    <mergeCell ref="AQ23:AV23"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="AS24:AT24"/>
-    <mergeCell ref="AJ32:AO32"/>
-    <mergeCell ref="AL33:AM33"/>
-    <mergeCell ref="AQ32:AV32"/>
-    <mergeCell ref="AS33:AT33"/>
-    <mergeCell ref="AJ26:AO26"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="V14:AA14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AC14:AH14"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="AQ3:AV3"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AQ8:AV8"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="AC32:AH32"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6029,8 +6043,8 @@
   </sheetPr>
   <dimension ref="A2:AC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G64" sqref="B62:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6062,70 +6076,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="I4" s="69" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="I4" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="P4" s="69" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="P4" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="W4" s="69" t="s">
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="W4" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
@@ -6134,10 +6148,10 @@
       <c r="C5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="18" t="s">
         <v>110</v>
       </c>
@@ -6150,10 +6164,10 @@
       <c r="J5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="L5" s="59"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="18" t="s">
         <v>110</v>
       </c>
@@ -6166,10 +6180,10 @@
       <c r="Q5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="59"/>
+      <c r="S5" s="60"/>
       <c r="T5" s="18" t="s">
         <v>110</v>
       </c>
@@ -6182,10 +6196,10 @@
       <c r="X5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Y5" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="Z5" s="59"/>
+      <c r="Z5" s="60"/>
       <c r="AA5" s="18" t="s">
         <v>110</v>
       </c>
@@ -6884,36 +6898,36 @@
       <c r="G30" s="20"/>
     </row>
     <row r="32" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="80"/>
-      <c r="Z32" s="80"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="80"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
@@ -6947,53 +6961,53 @@
       <c r="AC33" s="22"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
       <c r="O34" s="39"/>
-      <c r="P34" s="75" t="s">
+      <c r="P34" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="W34" s="77" t="s">
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="W34" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78" t="s">
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="79"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="83"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
       <c r="I35" s="41" t="s">
         <v>111</v>
       </c>
       <c r="J35" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L35" s="76"/>
+      <c r="L35" s="81"/>
       <c r="M35" s="41" t="s">
         <v>110</v>
       </c>
@@ -7007,10 +7021,10 @@
       <c r="Q35" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="R35" s="76" t="s">
+      <c r="R35" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="S35" s="76"/>
+      <c r="S35" s="81"/>
       <c r="T35" s="41" t="s">
         <v>110</v>
       </c>
@@ -7037,14 +7051,14 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
       <c r="I36" s="45"/>
       <c r="J36" s="45" t="s">
         <v>71</v>
@@ -7090,13 +7104,13 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="40"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47" t="s">
@@ -7143,12 +7157,12 @@
       <c r="AB37" s="19"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
       <c r="I38" s="44" t="s">
         <v>308</v>
       </c>
@@ -7194,12 +7208,12 @@
       <c r="AB38" s="19"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
       <c r="I39" s="44" t="s">
         <v>310</v>
       </c>
@@ -7231,12 +7245,12 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
       <c r="I40" s="44" t="s">
         <v>312</v>
       </c>
@@ -7266,24 +7280,24 @@
       <c r="U40" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="W40" s="75" t="s">
+      <c r="W40" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="78" t="s">
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="79"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="83"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
       <c r="I41" s="44" t="s">
         <v>321</v>
       </c>
@@ -7333,12 +7347,12 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
       <c r="I42" s="44" t="s">
         <v>322</v>
       </c>
@@ -7384,12 +7398,12 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
       <c r="I43" s="44" t="s">
         <v>92</v>
       </c>
@@ -7435,12 +7449,12 @@
       <c r="AB43" s="45"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
       <c r="I44" s="19" t="s">
         <v>91</v>
       </c>
@@ -7486,12 +7500,12 @@
       <c r="AB44" s="49"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
       <c r="I45" s="51"/>
       <c r="J45" s="49" t="s">
         <v>70</v>
@@ -7552,14 +7566,14 @@
         <v>72</v>
       </c>
       <c r="U46" s="47"/>
-      <c r="W46" s="75" t="s">
+      <c r="W46" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="75"/>
-      <c r="AA46" s="75"/>
-      <c r="AB46" s="75"/>
+      <c r="X46" s="78"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="78"/>
+      <c r="AB46" s="78"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="I47" s="46"/>
@@ -7597,10 +7611,10 @@
       <c r="X47" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="Y47" s="76" t="s">
+      <c r="Y47" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="Z47" s="76"/>
+      <c r="Z47" s="81"/>
       <c r="AA47" s="41" t="s">
         <v>110</v>
       </c>
@@ -7667,22 +7681,22 @@
       <c r="AB49" s="45"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I50" s="75" t="s">
+      <c r="I50" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="P50" s="75" t="s">
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="P50" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="75"/>
-      <c r="U50" s="75"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
       <c r="W50" s="19" t="s">
         <v>336</v>
       </c>
@@ -7705,10 +7719,10 @@
       <c r="J51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L51" s="76"/>
+      <c r="L51" s="81"/>
       <c r="M51" s="41" t="s">
         <v>110</v>
       </c>
@@ -7721,10 +7735,10 @@
       <c r="Q51" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="R51" s="76" t="s">
+      <c r="R51" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="S51" s="76"/>
+      <c r="S51" s="81"/>
       <c r="T51" s="41" t="s">
         <v>110</v>
       </c>
@@ -7761,16 +7775,16 @@
       <c r="U52" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="W52" s="77" t="s">
+      <c r="W52" s="76" t="s">
         <v>335</v>
       </c>
-      <c r="X52" s="78"/>
-      <c r="Y52" s="78"/>
-      <c r="Z52" s="78" t="s">
+      <c r="X52" s="77"/>
+      <c r="Y52" s="77"/>
+      <c r="Z52" s="77" t="s">
         <v>342</v>
       </c>
-      <c r="AA52" s="78"/>
-      <c r="AB52" s="79"/>
+      <c r="AA52" s="77"/>
+      <c r="AB52" s="83"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I53" s="19" t="s">
@@ -7970,54 +7984,54 @@
       </c>
     </row>
     <row r="60" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="80" t="s">
+      <c r="A60" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="80"/>
-      <c r="V60" s="80"/>
-      <c r="W60" s="80"/>
-      <c r="X60" s="80"/>
-      <c r="Y60" s="80"/>
-      <c r="Z60" s="80"/>
-      <c r="AA60" s="80"/>
-      <c r="AB60" s="80"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="79"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B62" s="69" t="s">
+      <c r="B62" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="I62" s="75" t="s">
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="I62" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
@@ -8026,10 +8040,10 @@
       <c r="C63" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="59"/>
+      <c r="E63" s="60"/>
       <c r="F63" s="18" t="s">
         <v>344</v>
       </c>
@@ -8042,10 +8056,10 @@
       <c r="J63" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K63" s="76" t="s">
+      <c r="K63" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L63" s="76"/>
+      <c r="L63" s="81"/>
       <c r="M63" s="41" t="s">
         <v>110</v>
       </c>
@@ -8056,7 +8070,7 @@
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64" s="37"/>
       <c r="C64" s="19" t="s">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="D64" s="16">
         <v>50</v>
@@ -8065,7 +8079,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>91</v>
+        <v>358</v>
       </c>
       <c r="G64" s="20"/>
       <c r="I64" s="45"/>
@@ -8086,7 +8100,7 @@
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37"/>
       <c r="C65" s="19" t="s">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="D65" s="16">
         <v>48</v>
@@ -8095,7 +8109,7 @@
         <v>47</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="G65" s="20"/>
       <c r="I65" s="47"/>
@@ -8127,9 +8141,11 @@
         <v>45</v>
       </c>
       <c r="F66" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="G66" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="20"/>
       <c r="I66" s="44" t="s">
         <v>308</v>
       </c>
@@ -8462,14 +8478,14 @@
       <c r="G77" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="I77" s="75" t="s">
+      <c r="I77" s="78" t="s">
         <v>352</v>
       </c>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="37"/>
@@ -8492,10 +8508,10 @@
       <c r="J78" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="K78" s="76" t="s">
+      <c r="K78" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="L78" s="76"/>
+      <c r="L78" s="81"/>
       <c r="M78" s="41" t="s">
         <v>110</v>
       </c>
@@ -8818,14 +8834,14 @@
       <c r="N89" s="47"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="69" t="s">
+      <c r="B90" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
       <c r="I90" s="46"/>
       <c r="J90" s="46" t="s">
         <v>180</v>
@@ -8848,10 +8864,10 @@
       <c r="C91" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="59" t="s">
+      <c r="D91" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="59"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="18" t="s">
         <v>110</v>
       </c>
@@ -8924,14 +8940,14 @@
       <c r="G96" s="20"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="69" t="s">
+      <c r="B98" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="33" t="s">
@@ -8940,10 +8956,10 @@
       <c r="C99" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="59" t="s">
+      <c r="D99" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="59"/>
+      <c r="E99" s="60"/>
       <c r="F99" s="33" t="s">
         <v>110</v>
       </c>
@@ -9021,34 +9037,13 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="A2:AB2"/>
-    <mergeCell ref="A32:AB32"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="P34:U34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="I77:N77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="B90:G90"/>
     <mergeCell ref="B62:G62"/>
     <mergeCell ref="Z34:AB34"/>
     <mergeCell ref="Z40:AB40"/>
@@ -9062,13 +9057,34 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="I62:N62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="I77:N77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="A32:AB32"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="P34:U34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
